--- a/inst/extdata/src_files/xl/V10.0/inputs_stics_example.xlsx
+++ b/inst/extdata/src_files/xl/V10.0/inputs_stics_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="USMs" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="338">
   <si>
     <t xml:space="preserve">usm_name</t>
   </si>
@@ -856,6 +856,9 @@
     <t xml:space="preserve">NH3ref</t>
   </si>
   <si>
+    <t xml:space="preserve">concrr</t>
+  </si>
+  <si>
     <t xml:space="preserve">latitude</t>
   </si>
   <si>
@@ -1663,12 +1666,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1734,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1748,7 +1751,7 @@
       <selection pane="bottomRight" activeCell="O4" activeCellId="0" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.82"/>
@@ -1764,7 +1767,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="22.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="22.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="1" width="22.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="10.57"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2383,8 +2385,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2393,17 +2395,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.85"/>
@@ -2411,7 +2413,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.57"/>
@@ -2423,8 +2425,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="26" style="0" width="9.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="9.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="31" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1015" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3257,8 +3258,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3267,7 +3268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3277,7 +3278,7 @@
       <selection pane="topLeft" activeCell="S26" activeCellId="0" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.57"/>
@@ -3291,11 +3292,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="15" style="32" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="32" width="14.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="40" style="32" width="8.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="64" style="32" width="10.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="66" min="64" style="32" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="32" width="8.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="68" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="254" min="75" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="255" min="255" style="0" width="9.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="256" style="0" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="257" style="0" width="5.57"/>
@@ -3357,9 +3356,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="320" min="319" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="321" min="321" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="322" min="322" style="0" width="6.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="329" min="323" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="330" min="330" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="510" min="331" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="511" min="511" style="0" width="9.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="512" min="512" style="0" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="513" min="513" style="0" width="5.57"/>
@@ -3421,9 +3418,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="576" min="575" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="577" min="577" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="578" min="578" style="0" width="6.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="585" min="579" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="586" min="586" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="766" min="587" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="767" min="767" style="0" width="9.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="768" min="768" style="0" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="769" min="769" style="0" width="5.57"/>
@@ -3485,10 +3480,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="832" min="831" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="833" min="833" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="834" min="834" style="0" width="6.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="841" min="835" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="842" min="842" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="843" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1019" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" s="36" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6335,8 +6328,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6345,7 +6338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -6355,7 +6348,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5"/>
@@ -6371,8 +6364,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="12" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="17" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="22" style="0" width="5.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="27" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6600,8 +6592,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6610,7 +6602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -6620,7 +6612,7 @@
       <selection pane="topLeft" activeCell="BI2" activeCellId="0" sqref="BI2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="53.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8"/>
@@ -6628,14 +6620,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="28" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="28" width="9.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="4.28"/>
@@ -6665,12 +6655,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="68" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="0" width="30.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="72" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="0" width="16.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="790" min="75" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="791" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="791" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9116,8 +9103,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -9126,53 +9113,52 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="7.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="6.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="12.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="3.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="5.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="33" style="0" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="70" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="44" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="7.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="8.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="6.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="12.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="34" style="0" width="9.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="70" width="9.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9191,10 +9177,10 @@
       <c r="E1" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="62" t="s">
         <v>278</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="61" t="s">
         <v>279</v>
       </c>
       <c r="H1" s="47" t="s">
@@ -9230,10 +9216,10 @@
       <c r="R1" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="54" t="s">
         <v>292</v>
       </c>
       <c r="U1" s="71" t="s">
@@ -9251,10 +9237,10 @@
       <c r="Y1" s="71" t="s">
         <v>297</v>
       </c>
-      <c r="Z1" s="72" t="s">
+      <c r="Z1" s="71" t="s">
         <v>298</v>
       </c>
-      <c r="AA1" s="49" t="s">
+      <c r="AA1" s="72" t="s">
         <v>299</v>
       </c>
       <c r="AB1" s="49" t="s">
@@ -9269,10 +9255,10 @@
       <c r="AE1" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="AF1" s="50" t="s">
+      <c r="AF1" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="AG1" s="73" t="s">
+      <c r="AG1" s="50" t="s">
         <v>305</v>
       </c>
       <c r="AH1" s="73" t="s">
@@ -9302,8 +9288,11 @@
       <c r="AP1" s="73" t="s">
         <v>314</v>
       </c>
-      <c r="AQ1" s="74" t="s">
+      <c r="AQ1" s="73" t="s">
         <v>315</v>
+      </c>
+      <c r="AR1" s="74" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9317,130 +9306,133 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F2" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="F2" s="15" t="n">
+      <c r="G2" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="G2" s="28" t="n">
-        <v>1</v>
-      </c>
       <c r="H2" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="28" t="n">
         <v>1.25</v>
       </c>
-      <c r="I2" s="28" t="n">
-        <v>1</v>
-      </c>
       <c r="J2" s="28" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="28" t="n">
         <v>440</v>
       </c>
-      <c r="L2" s="28" t="n">
+      <c r="M2" s="28" t="n">
         <v>800</v>
       </c>
-      <c r="M2" s="28" t="n">
+      <c r="N2" s="28" t="n">
         <v>-0.5</v>
       </c>
-      <c r="N2" s="28" t="n">
+      <c r="O2" s="28" t="n">
         <v>-0.55</v>
       </c>
-      <c r="O2" s="28" t="n">
+      <c r="P2" s="28" t="n">
         <v>500</v>
       </c>
-      <c r="P2" s="28" t="n">
+      <c r="Q2" s="28" t="n">
         <v>1.3</v>
       </c>
-      <c r="Q2" s="28" t="n">
+      <c r="R2" s="28" t="n">
         <v>0.8</v>
       </c>
-      <c r="R2" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="15" t="n">
+      <c r="S2" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" s="15" t="n">
         <v>-1.4</v>
       </c>
-      <c r="T2" s="28" t="n">
+      <c r="U2" s="28" t="n">
         <v>50</v>
       </c>
-      <c r="U2" s="28" t="n">
+      <c r="V2" s="28" t="n">
         <v>0.23</v>
       </c>
-      <c r="V2" s="28" t="n">
+      <c r="W2" s="28" t="n">
         <v>0.18</v>
       </c>
-      <c r="W2" s="28" t="n">
+      <c r="X2" s="28" t="n">
         <v>0.62</v>
       </c>
-      <c r="X2" s="28" t="n">
-        <v>1</v>
-      </c>
       <c r="Y2" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="Z2" s="15" t="n">
+      <c r="Z2" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="AA2" s="28" t="n">
+      <c r="AB2" s="28" t="n">
         <v>0.7</v>
       </c>
-      <c r="AB2" s="28" t="n">
+      <c r="AC2" s="28" t="n">
         <v>6</v>
       </c>
-      <c r="AC2" s="28" t="n">
+      <c r="AD2" s="28" t="n">
         <v>0.5</v>
       </c>
-      <c r="AD2" s="28" t="n">
+      <c r="AE2" s="28" t="n">
         <v>0.16</v>
       </c>
-      <c r="AE2" s="28" t="n">
+      <c r="AF2" s="28" t="n">
         <v>0.004</v>
       </c>
-      <c r="AF2" s="15" t="n">
+      <c r="AG2" s="15" t="n">
         <v>0.59</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AH2" s="0" t="n">
         <v>-1.99</v>
       </c>
-      <c r="AH2" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="AI2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="0" t="n">
         <v>1.49</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AK2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AL2" s="0" t="n">
         <v>0.49</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AM2" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AN2" s="0" t="n">
         <v>99.9</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AO2" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="AO2" s="0" t="n">
+      <c r="AP2" s="0" t="n">
         <v>9.99</v>
       </c>
-      <c r="AP2" s="0" t="n">
+      <c r="AQ2" s="0" t="n">
         <v>-0.6</v>
       </c>
-      <c r="AQ2" s="70" t="n">
+      <c r="AR2" s="70" t="n">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -9449,7 +9441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -9459,7 +9451,7 @@
       <selection pane="topLeft" activeCell="P23" activeCellId="0" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5"/>
@@ -9475,12 +9467,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="10.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="42" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B1" s="43" t="s">
         <v>169</v>
@@ -9495,42 +9486,42 @@
         <v>172</v>
       </c>
       <c r="F1" s="75" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G1" s="76" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1" s="77" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K1" s="53" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L1" s="78" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M1" s="79" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2017</v>
@@ -9569,15 +9560,15 @@
         <v>405</v>
       </c>
       <c r="O2" s="75" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2017</v>
@@ -9616,15 +9607,15 @@
         <v>405</v>
       </c>
       <c r="O3" s="76" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2017</v>
@@ -9663,15 +9654,15 @@
         <v>405</v>
       </c>
       <c r="O4" s="77" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2017</v>
@@ -9710,15 +9701,15 @@
         <v>405</v>
       </c>
       <c r="O5" s="55" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2017</v>
@@ -9757,15 +9748,15 @@
         <v>405</v>
       </c>
       <c r="O6" s="55" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2017</v>
@@ -9804,15 +9795,15 @@
         <v>405</v>
       </c>
       <c r="O7" s="53" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2017</v>
@@ -9851,15 +9842,15 @@
         <v>405</v>
       </c>
       <c r="O8" s="78" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2017</v>
@@ -9898,15 +9889,15 @@
         <v>405</v>
       </c>
       <c r="O9" s="79" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2017</v>
@@ -9947,7 +9938,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2017</v>
@@ -9988,7 +9979,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2017</v>
@@ -10029,7 +10020,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>2017</v>
@@ -10070,7 +10061,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>2017</v>
@@ -10111,7 +10102,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2017</v>
@@ -10152,7 +10143,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>2017</v>
@@ -10193,7 +10184,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2017</v>
@@ -10234,7 +10225,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2017</v>
@@ -10275,7 +10266,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>2017</v>
@@ -10316,7 +10307,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>2017</v>
@@ -10357,7 +10348,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>2017</v>
@@ -10398,7 +10389,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2017</v>
@@ -10439,7 +10430,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>2017</v>
@@ -10480,7 +10471,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>2017</v>
@@ -10521,7 +10512,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2017</v>
@@ -10562,7 +10553,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2017</v>
@@ -10603,7 +10594,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2017</v>
@@ -10644,7 +10635,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>2017</v>
@@ -10685,7 +10676,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>2017</v>
@@ -10726,7 +10717,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2017</v>
@@ -10767,7 +10758,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2017</v>
@@ -10808,7 +10799,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>2017</v>
@@ -10849,7 +10840,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2017</v>
@@ -10890,7 +10881,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>2017</v>
@@ -10931,7 +10922,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>2017</v>
@@ -10972,7 +10963,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2017</v>
@@ -11013,7 +11004,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2017</v>
@@ -11054,7 +11045,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>2017</v>
@@ -11095,7 +11086,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>2017</v>
@@ -11136,7 +11127,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>2017</v>
@@ -11177,7 +11168,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>2017</v>
@@ -11218,7 +11209,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>2017</v>
@@ -11259,7 +11250,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>2017</v>
@@ -11300,7 +11291,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>2017</v>
@@ -11341,7 +11332,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>2017</v>
@@ -11382,7 +11373,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>2017</v>
@@ -11423,7 +11414,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>2017</v>
@@ -11464,7 +11455,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>2017</v>
@@ -11505,7 +11496,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>2017</v>
@@ -11546,7 +11537,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>2017</v>
@@ -11587,7 +11578,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>2017</v>
@@ -11628,7 +11619,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>2017</v>
@@ -11669,7 +11660,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>2017</v>
@@ -11710,7 +11701,7 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>2017</v>
@@ -11751,7 +11742,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>2017</v>
@@ -11792,7 +11783,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>2017</v>
@@ -11833,7 +11824,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>2017</v>
@@ -11874,7 +11865,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>2017</v>
@@ -11915,7 +11906,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>2017</v>
@@ -11956,7 +11947,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>2017</v>
@@ -11997,7 +11988,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>2017</v>
@@ -12038,7 +12029,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>2017</v>
@@ -12079,7 +12070,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>2017</v>
@@ -12120,7 +12111,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>2017</v>
@@ -12161,7 +12152,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>2017</v>
@@ -12202,7 +12193,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>2017</v>
@@ -12243,7 +12234,7 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2017</v>
@@ -12284,7 +12275,7 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2017</v>
@@ -12325,7 +12316,7 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2017</v>
@@ -12366,7 +12357,7 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>2017</v>
@@ -12407,7 +12398,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>2017</v>
@@ -12448,7 +12439,7 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>2017</v>
@@ -12489,7 +12480,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>2017</v>
@@ -12530,7 +12521,7 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>2017</v>
@@ -12571,7 +12562,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>2017</v>
@@ -12612,7 +12603,7 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>2017</v>
@@ -12653,7 +12644,7 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>2017</v>
@@ -12694,7 +12685,7 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>2017</v>
@@ -12735,7 +12726,7 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>2017</v>
@@ -12776,7 +12767,7 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>2017</v>
@@ -12817,7 +12808,7 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>2017</v>
@@ -12858,7 +12849,7 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>2017</v>
@@ -12899,7 +12890,7 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>2017</v>
@@ -12940,7 +12931,7 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>2017</v>
@@ -12981,7 +12972,7 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>2017</v>
@@ -13022,7 +13013,7 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>2017</v>
@@ -13063,7 +13054,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>2017</v>
@@ -13104,7 +13095,7 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>2017</v>
@@ -13145,7 +13136,7 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>2017</v>
@@ -13186,7 +13177,7 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>2017</v>
@@ -13227,7 +13218,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>2017</v>
@@ -13268,7 +13259,7 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>2017</v>
@@ -13309,7 +13300,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>2017</v>
@@ -13350,7 +13341,7 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>2017</v>
@@ -13391,7 +13382,7 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>2017</v>
@@ -13432,7 +13423,7 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>2017</v>
@@ -13473,7 +13464,7 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>2017</v>
@@ -13514,7 +13505,7 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>2017</v>
@@ -13555,7 +13546,7 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>2017</v>
@@ -13596,7 +13587,7 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>2017</v>
@@ -13637,7 +13628,7 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>2017</v>
@@ -13678,7 +13669,7 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>2017</v>
@@ -13719,7 +13710,7 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>2017</v>
@@ -13760,7 +13751,7 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>2017</v>
@@ -13801,7 +13792,7 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>2017</v>
@@ -13842,7 +13833,7 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>2017</v>
@@ -13883,7 +13874,7 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>2017</v>
@@ -13924,7 +13915,7 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>2017</v>
@@ -13965,7 +13956,7 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>2017</v>
@@ -14006,7 +13997,7 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>2017</v>
@@ -14047,7 +14038,7 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>2017</v>
@@ -14088,7 +14079,7 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>2017</v>
@@ -14129,7 +14120,7 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>2017</v>
@@ -14170,7 +14161,7 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>2017</v>
@@ -14211,7 +14202,7 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>2017</v>
@@ -14252,7 +14243,7 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>2017</v>
@@ -14293,7 +14284,7 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>2017</v>
@@ -14334,7 +14325,7 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>2017</v>
@@ -14375,7 +14366,7 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>2017</v>
@@ -14416,7 +14407,7 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>2017</v>
@@ -14457,7 +14448,7 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>2017</v>
@@ -14498,7 +14489,7 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>2017</v>
@@ -14539,7 +14530,7 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>2017</v>
@@ -14580,7 +14571,7 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>2017</v>
@@ -14621,7 +14612,7 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>2017</v>
@@ -14662,7 +14653,7 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>2017</v>
@@ -14703,7 +14694,7 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>2017</v>
@@ -14744,7 +14735,7 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>2017</v>
@@ -14785,7 +14776,7 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>2017</v>
@@ -14826,7 +14817,7 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>2017</v>
@@ -14867,7 +14858,7 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>2017</v>
@@ -14908,7 +14899,7 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>2017</v>
@@ -14949,7 +14940,7 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>2017</v>
@@ -14990,7 +14981,7 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>2017</v>
@@ -15031,7 +15022,7 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>2017</v>
@@ -15072,7 +15063,7 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>2017</v>
@@ -15113,7 +15104,7 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>2017</v>
@@ -15154,7 +15145,7 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>2017</v>
@@ -15195,7 +15186,7 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>2017</v>
@@ -15236,7 +15227,7 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>2017</v>
@@ -15277,7 +15268,7 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>2017</v>
@@ -15318,7 +15309,7 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>2017</v>
@@ -15359,7 +15350,7 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>2017</v>
@@ -15400,7 +15391,7 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>2017</v>
@@ -15441,7 +15432,7 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>2017</v>
@@ -15482,7 +15473,7 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>2017</v>
@@ -15523,7 +15514,7 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>2017</v>
@@ -15564,7 +15555,7 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>2017</v>
@@ -15605,7 +15596,7 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>2017</v>
@@ -15646,7 +15637,7 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>2017</v>
@@ -15687,7 +15678,7 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>2017</v>
@@ -15728,7 +15719,7 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>2017</v>
@@ -15769,7 +15760,7 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>2017</v>
@@ -15810,7 +15801,7 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>2017</v>
@@ -15851,7 +15842,7 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>2017</v>
@@ -15892,7 +15883,7 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>2017</v>
@@ -15933,7 +15924,7 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>2017</v>
@@ -15974,7 +15965,7 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>2017</v>
@@ -16015,7 +16006,7 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>2017</v>
@@ -16056,7 +16047,7 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>2017</v>
@@ -16097,7 +16088,7 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>2017</v>
@@ -16138,7 +16129,7 @@
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>2017</v>
@@ -16179,7 +16170,7 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>2017</v>
@@ -16220,7 +16211,7 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>2017</v>
@@ -16261,7 +16252,7 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>2017</v>
@@ -16302,7 +16293,7 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>2017</v>
@@ -16343,7 +16334,7 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>2017</v>
@@ -16384,7 +16375,7 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>2017</v>
@@ -16425,7 +16416,7 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>2017</v>
@@ -16466,7 +16457,7 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>2017</v>
@@ -16507,7 +16498,7 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>2017</v>
@@ -16548,7 +16539,7 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>2017</v>
@@ -16589,7 +16580,7 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>2017</v>
@@ -16630,7 +16621,7 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>2017</v>
@@ -16671,7 +16662,7 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>2017</v>
@@ -16712,7 +16703,7 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>2017</v>
@@ -16753,7 +16744,7 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>2017</v>
@@ -16794,7 +16785,7 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>2017</v>
@@ -16835,7 +16826,7 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>2017</v>
@@ -16876,7 +16867,7 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>2017</v>
@@ -16917,7 +16908,7 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>2017</v>
@@ -16958,7 +16949,7 @@
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>2017</v>
@@ -16999,7 +16990,7 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>2017</v>
@@ -17040,7 +17031,7 @@
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>2017</v>
@@ -17081,7 +17072,7 @@
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>2017</v>
@@ -17122,7 +17113,7 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>2017</v>
@@ -17163,7 +17154,7 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>2017</v>
@@ -17204,7 +17195,7 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>2017</v>
@@ -17245,7 +17236,7 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>2017</v>
@@ -17286,7 +17277,7 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>2017</v>
@@ -17327,7 +17318,7 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>2017</v>
@@ -17368,7 +17359,7 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>2017</v>
@@ -17409,7 +17400,7 @@
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>2017</v>
@@ -17450,7 +17441,7 @@
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>2017</v>
@@ -17491,7 +17482,7 @@
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>2017</v>
@@ -17532,7 +17523,7 @@
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>2017</v>
@@ -17573,7 +17564,7 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>2017</v>
@@ -17614,7 +17605,7 @@
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>2017</v>
@@ -17655,7 +17646,7 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>2017</v>
@@ -17696,7 +17687,7 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>2017</v>
@@ -17737,7 +17728,7 @@
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>2017</v>
@@ -17778,7 +17769,7 @@
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>2017</v>
@@ -17819,7 +17810,7 @@
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>2017</v>
@@ -17860,7 +17851,7 @@
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>2017</v>
@@ -17901,7 +17892,7 @@
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>2017</v>
@@ -17942,7 +17933,7 @@
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>2017</v>
@@ -17983,7 +17974,7 @@
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>2017</v>
@@ -18024,7 +18015,7 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>2017</v>
@@ -18065,7 +18056,7 @@
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>2017</v>
@@ -18106,7 +18097,7 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>2017</v>
@@ -18147,7 +18138,7 @@
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>2017</v>
@@ -18188,7 +18179,7 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>2017</v>
@@ -18229,7 +18220,7 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>2017</v>
@@ -18270,7 +18261,7 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B214" s="0" t="n">
         <v>2017</v>
@@ -18311,7 +18302,7 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>2017</v>
@@ -18352,7 +18343,7 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B216" s="0" t="n">
         <v>2017</v>
@@ -18393,7 +18384,7 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>2017</v>
@@ -18434,7 +18425,7 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>2017</v>
@@ -18475,7 +18466,7 @@
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B219" s="0" t="n">
         <v>2017</v>
@@ -18516,7 +18507,7 @@
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B220" s="0" t="n">
         <v>2017</v>
@@ -18557,7 +18548,7 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>2017</v>
@@ -18598,7 +18589,7 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>2017</v>
@@ -18639,7 +18630,7 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>2017</v>
@@ -18680,7 +18671,7 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>2017</v>
@@ -18721,7 +18712,7 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B225" s="0" t="n">
         <v>2017</v>
@@ -18762,7 +18753,7 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B226" s="0" t="n">
         <v>2017</v>
@@ -18803,7 +18794,7 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B227" s="0" t="n">
         <v>2017</v>
@@ -18844,7 +18835,7 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B228" s="0" t="n">
         <v>2017</v>
@@ -18885,7 +18876,7 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>2017</v>
@@ -18926,7 +18917,7 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B230" s="0" t="n">
         <v>2017</v>
@@ -18967,7 +18958,7 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B231" s="0" t="n">
         <v>2017</v>
@@ -19008,7 +18999,7 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>2017</v>
@@ -19049,7 +19040,7 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>2017</v>
@@ -19090,7 +19081,7 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>2017</v>
@@ -19131,7 +19122,7 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>2017</v>
@@ -19172,7 +19163,7 @@
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>2017</v>
@@ -19213,7 +19204,7 @@
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B237" s="0" t="n">
         <v>2017</v>
@@ -19254,7 +19245,7 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B238" s="0" t="n">
         <v>2017</v>
@@ -19295,7 +19286,7 @@
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B239" s="0" t="n">
         <v>2017</v>
@@ -19336,7 +19327,7 @@
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B240" s="0" t="n">
         <v>2017</v>
@@ -19377,7 +19368,7 @@
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B241" s="0" t="n">
         <v>2017</v>
@@ -19418,7 +19409,7 @@
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B242" s="0" t="n">
         <v>2017</v>
@@ -19459,7 +19450,7 @@
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B243" s="0" t="n">
         <v>2017</v>
@@ -19500,7 +19491,7 @@
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B244" s="0" t="n">
         <v>2017</v>
@@ -19541,7 +19532,7 @@
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B245" s="0" t="n">
         <v>2017</v>
@@ -19582,7 +19573,7 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B246" s="0" t="n">
         <v>2017</v>
@@ -19623,7 +19614,7 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B247" s="0" t="n">
         <v>2017</v>
@@ -19664,7 +19655,7 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B248" s="0" t="n">
         <v>2017</v>
@@ -19705,7 +19696,7 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B249" s="0" t="n">
         <v>2017</v>
@@ -19746,7 +19737,7 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B250" s="0" t="n">
         <v>2017</v>
@@ -19787,7 +19778,7 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B251" s="0" t="n">
         <v>2017</v>
@@ -19828,7 +19819,7 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B252" s="0" t="n">
         <v>2017</v>
@@ -19869,7 +19860,7 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B253" s="0" t="n">
         <v>2017</v>
@@ -19910,7 +19901,7 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B254" s="0" t="n">
         <v>2017</v>
@@ -19951,7 +19942,7 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B255" s="0" t="n">
         <v>2017</v>
@@ -19992,7 +19983,7 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B256" s="0" t="n">
         <v>2017</v>
@@ -20033,7 +20024,7 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B257" s="0" t="n">
         <v>2017</v>
@@ -20074,7 +20065,7 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B258" s="0" t="n">
         <v>2017</v>
@@ -20115,7 +20106,7 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B259" s="0" t="n">
         <v>2017</v>
@@ -20156,7 +20147,7 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B260" s="0" t="n">
         <v>2017</v>
@@ -20197,7 +20188,7 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B261" s="0" t="n">
         <v>2017</v>
@@ -20238,7 +20229,7 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B262" s="0" t="n">
         <v>2017</v>
@@ -20279,7 +20270,7 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B263" s="0" t="n">
         <v>2017</v>
@@ -20320,7 +20311,7 @@
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B264" s="0" t="n">
         <v>2017</v>
@@ -20361,7 +20352,7 @@
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>2017</v>
@@ -20402,7 +20393,7 @@
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>2017</v>
@@ -20443,7 +20434,7 @@
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>2017</v>
@@ -20484,7 +20475,7 @@
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>2017</v>
@@ -20525,7 +20516,7 @@
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B269" s="0" t="n">
         <v>2017</v>
@@ -20566,7 +20557,7 @@
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B270" s="0" t="n">
         <v>2017</v>
@@ -20607,7 +20598,7 @@
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B271" s="0" t="n">
         <v>2017</v>
@@ -20648,7 +20639,7 @@
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B272" s="0" t="n">
         <v>2017</v>
@@ -20689,7 +20680,7 @@
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B273" s="0" t="n">
         <v>2017</v>
@@ -20730,7 +20721,7 @@
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B274" s="0" t="n">
         <v>2017</v>
@@ -20771,7 +20762,7 @@
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B275" s="0" t="n">
         <v>2017</v>
@@ -20812,7 +20803,7 @@
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B276" s="0" t="n">
         <v>2017</v>
@@ -20853,7 +20844,7 @@
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B277" s="0" t="n">
         <v>2017</v>
@@ -20894,7 +20885,7 @@
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B278" s="0" t="n">
         <v>2017</v>
@@ -20935,7 +20926,7 @@
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B279" s="0" t="n">
         <v>2017</v>
@@ -20976,7 +20967,7 @@
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B280" s="0" t="n">
         <v>2017</v>
@@ -21017,7 +21008,7 @@
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B281" s="0" t="n">
         <v>2017</v>
@@ -21058,7 +21049,7 @@
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B282" s="0" t="n">
         <v>2017</v>
@@ -21099,7 +21090,7 @@
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B283" s="0" t="n">
         <v>2017</v>
@@ -21140,7 +21131,7 @@
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B284" s="0" t="n">
         <v>2017</v>
@@ -21181,7 +21172,7 @@
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B285" s="0" t="n">
         <v>2017</v>
@@ -21222,7 +21213,7 @@
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B286" s="0" t="n">
         <v>2017</v>
@@ -21263,7 +21254,7 @@
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B287" s="0" t="n">
         <v>2017</v>
@@ -21304,7 +21295,7 @@
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B288" s="0" t="n">
         <v>2017</v>
@@ -21345,7 +21336,7 @@
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B289" s="0" t="n">
         <v>2017</v>
@@ -21386,7 +21377,7 @@
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B290" s="0" t="n">
         <v>2017</v>
@@ -21427,7 +21418,7 @@
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B291" s="0" t="n">
         <v>2017</v>
@@ -21468,7 +21459,7 @@
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B292" s="0" t="n">
         <v>2017</v>
@@ -21509,7 +21500,7 @@
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B293" s="0" t="n">
         <v>2017</v>
@@ -21550,7 +21541,7 @@
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B294" s="0" t="n">
         <v>2017</v>
@@ -21591,7 +21582,7 @@
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B295" s="0" t="n">
         <v>2017</v>
@@ -21632,7 +21623,7 @@
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B296" s="0" t="n">
         <v>2017</v>
@@ -21673,7 +21664,7 @@
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B297" s="0" t="n">
         <v>2017</v>
@@ -21714,7 +21705,7 @@
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B298" s="0" t="n">
         <v>2017</v>
@@ -21755,7 +21746,7 @@
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B299" s="0" t="n">
         <v>2017</v>
@@ -21796,7 +21787,7 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B300" s="0" t="n">
         <v>2017</v>
@@ -21837,7 +21828,7 @@
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B301" s="0" t="n">
         <v>2017</v>
@@ -21878,7 +21869,7 @@
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B302" s="0" t="n">
         <v>2017</v>
@@ -21919,7 +21910,7 @@
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B303" s="0" t="n">
         <v>2017</v>
@@ -21960,7 +21951,7 @@
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B304" s="0" t="n">
         <v>2017</v>
@@ -22001,7 +21992,7 @@
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B305" s="0" t="n">
         <v>2017</v>
@@ -22042,7 +22033,7 @@
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B306" s="0" t="n">
         <v>2017</v>
@@ -22083,7 +22074,7 @@
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B307" s="0" t="n">
         <v>2017</v>
@@ -22124,7 +22115,7 @@
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B308" s="0" t="n">
         <v>2017</v>
@@ -22165,7 +22156,7 @@
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B309" s="0" t="n">
         <v>2017</v>
@@ -22206,7 +22197,7 @@
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B310" s="0" t="n">
         <v>2017</v>
@@ -22247,7 +22238,7 @@
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B311" s="0" t="n">
         <v>2017</v>
@@ -22288,7 +22279,7 @@
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B312" s="0" t="n">
         <v>2017</v>
@@ -22329,7 +22320,7 @@
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B313" s="0" t="n">
         <v>2017</v>
@@ -22370,7 +22361,7 @@
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B314" s="0" t="n">
         <v>2017</v>
@@ -22411,7 +22402,7 @@
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B315" s="0" t="n">
         <v>2017</v>
@@ -22452,7 +22443,7 @@
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B316" s="0" t="n">
         <v>2017</v>
@@ -22493,7 +22484,7 @@
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B317" s="0" t="n">
         <v>2017</v>
@@ -22534,7 +22525,7 @@
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B318" s="0" t="n">
         <v>2017</v>
@@ -22575,7 +22566,7 @@
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B319" s="0" t="n">
         <v>2017</v>
@@ -22616,7 +22607,7 @@
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B320" s="0" t="n">
         <v>2017</v>
@@ -22657,7 +22648,7 @@
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B321" s="0" t="n">
         <v>2017</v>
@@ -22698,7 +22689,7 @@
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B322" s="0" t="n">
         <v>2017</v>
@@ -22739,7 +22730,7 @@
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B323" s="0" t="n">
         <v>2017</v>
@@ -22780,7 +22771,7 @@
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B324" s="0" t="n">
         <v>2017</v>
@@ -22821,7 +22812,7 @@
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B325" s="0" t="n">
         <v>2017</v>
@@ -22862,7 +22853,7 @@
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B326" s="0" t="n">
         <v>2017</v>
@@ -22903,7 +22894,7 @@
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B327" s="0" t="n">
         <v>2017</v>
@@ -22944,7 +22935,7 @@
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B328" s="0" t="n">
         <v>2017</v>
@@ -22985,7 +22976,7 @@
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B329" s="0" t="n">
         <v>2017</v>
@@ -23026,7 +23017,7 @@
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B330" s="0" t="n">
         <v>2017</v>
@@ -23067,7 +23058,7 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B331" s="0" t="n">
         <v>2017</v>
@@ -23108,7 +23099,7 @@
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B332" s="0" t="n">
         <v>2017</v>
@@ -23149,7 +23140,7 @@
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B333" s="0" t="n">
         <v>2017</v>
@@ -23190,7 +23181,7 @@
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B334" s="0" t="n">
         <v>2017</v>
@@ -23231,7 +23222,7 @@
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B335" s="0" t="n">
         <v>2017</v>
@@ -23272,7 +23263,7 @@
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B336" s="0" t="n">
         <v>2017</v>
@@ -23313,7 +23304,7 @@
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B337" s="0" t="n">
         <v>2017</v>
@@ -23354,7 +23345,7 @@
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B338" s="0" t="n">
         <v>2017</v>
@@ -23395,7 +23386,7 @@
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B339" s="0" t="n">
         <v>2017</v>
@@ -23436,7 +23427,7 @@
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B340" s="0" t="n">
         <v>2017</v>
@@ -23477,7 +23468,7 @@
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B341" s="0" t="n">
         <v>2017</v>
@@ -23518,7 +23509,7 @@
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B342" s="0" t="n">
         <v>2017</v>
@@ -23559,7 +23550,7 @@
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B343" s="0" t="n">
         <v>2017</v>
@@ -23600,7 +23591,7 @@
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B344" s="0" t="n">
         <v>2017</v>
@@ -23641,7 +23632,7 @@
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B345" s="0" t="n">
         <v>2017</v>
@@ -23682,7 +23673,7 @@
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B346" s="0" t="n">
         <v>2017</v>
@@ -23723,7 +23714,7 @@
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B347" s="0" t="n">
         <v>2017</v>
@@ -23764,7 +23755,7 @@
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B348" s="0" t="n">
         <v>2017</v>
@@ -23805,7 +23796,7 @@
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B349" s="0" t="n">
         <v>2017</v>
@@ -23846,7 +23837,7 @@
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B350" s="0" t="n">
         <v>2017</v>
@@ -23887,7 +23878,7 @@
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B351" s="0" t="n">
         <v>2017</v>
@@ -23928,7 +23919,7 @@
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B352" s="0" t="n">
         <v>2017</v>
@@ -23969,7 +23960,7 @@
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B353" s="0" t="n">
         <v>2017</v>
@@ -24010,7 +24001,7 @@
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B354" s="0" t="n">
         <v>2017</v>
@@ -24051,7 +24042,7 @@
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B355" s="0" t="n">
         <v>2017</v>
@@ -24092,7 +24083,7 @@
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B356" s="0" t="n">
         <v>2017</v>
@@ -24133,7 +24124,7 @@
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B357" s="0" t="n">
         <v>2017</v>
@@ -24174,7 +24165,7 @@
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B358" s="0" t="n">
         <v>2017</v>
@@ -24215,7 +24206,7 @@
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B359" s="0" t="n">
         <v>2017</v>
@@ -24256,7 +24247,7 @@
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B360" s="0" t="n">
         <v>2017</v>
@@ -24297,7 +24288,7 @@
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B361" s="0" t="n">
         <v>2017</v>
@@ -24338,7 +24329,7 @@
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B362" s="0" t="n">
         <v>2017</v>
@@ -24379,7 +24370,7 @@
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B363" s="0" t="n">
         <v>2017</v>
@@ -24420,7 +24411,7 @@
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B364" s="0" t="n">
         <v>2017</v>
@@ -24461,7 +24452,7 @@
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B365" s="0" t="n">
         <v>2017</v>
@@ -24502,7 +24493,7 @@
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B366" s="0" t="n">
         <v>2017</v>
@@ -24543,7 +24534,7 @@
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B367" s="0" t="n">
         <v>2018</v>
@@ -24584,7 +24575,7 @@
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B368" s="0" t="n">
         <v>2018</v>
@@ -24625,7 +24616,7 @@
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B369" s="0" t="n">
         <v>2018</v>
@@ -24666,7 +24657,7 @@
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B370" s="0" t="n">
         <v>2018</v>
@@ -24707,7 +24698,7 @@
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B371" s="0" t="n">
         <v>2018</v>
@@ -24748,7 +24739,7 @@
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B372" s="0" t="n">
         <v>2018</v>
@@ -24789,7 +24780,7 @@
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B373" s="0" t="n">
         <v>2018</v>
@@ -24830,7 +24821,7 @@
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B374" s="0" t="n">
         <v>2018</v>
@@ -24871,7 +24862,7 @@
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B375" s="0" t="n">
         <v>2018</v>
@@ -24912,7 +24903,7 @@
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B376" s="0" t="n">
         <v>2018</v>
@@ -24953,7 +24944,7 @@
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B377" s="0" t="n">
         <v>2018</v>
@@ -24994,7 +24985,7 @@
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B378" s="0" t="n">
         <v>2018</v>
@@ -25035,7 +25026,7 @@
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B379" s="0" t="n">
         <v>2018</v>
@@ -25076,7 +25067,7 @@
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B380" s="0" t="n">
         <v>2018</v>
@@ -25117,7 +25108,7 @@
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B381" s="0" t="n">
         <v>2018</v>
@@ -25158,7 +25149,7 @@
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B382" s="0" t="n">
         <v>2018</v>
@@ -25199,7 +25190,7 @@
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B383" s="0" t="n">
         <v>2018</v>
@@ -25240,7 +25231,7 @@
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B384" s="0" t="n">
         <v>2018</v>
@@ -25281,7 +25272,7 @@
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B385" s="0" t="n">
         <v>2018</v>
@@ -25322,7 +25313,7 @@
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B386" s="0" t="n">
         <v>2018</v>
@@ -25363,7 +25354,7 @@
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B387" s="0" t="n">
         <v>2018</v>
@@ -25404,7 +25395,7 @@
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B388" s="0" t="n">
         <v>2018</v>
@@ -25445,7 +25436,7 @@
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B389" s="0" t="n">
         <v>2018</v>
@@ -25486,7 +25477,7 @@
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B390" s="0" t="n">
         <v>2018</v>
@@ -25527,7 +25518,7 @@
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B391" s="0" t="n">
         <v>2018</v>
@@ -25568,7 +25559,7 @@
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B392" s="0" t="n">
         <v>2018</v>
@@ -25609,7 +25600,7 @@
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B393" s="0" t="n">
         <v>2018</v>
@@ -25650,7 +25641,7 @@
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B394" s="0" t="n">
         <v>2018</v>
@@ -25691,7 +25682,7 @@
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B395" s="0" t="n">
         <v>2018</v>
@@ -25732,7 +25723,7 @@
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B396" s="0" t="n">
         <v>2018</v>
@@ -25773,7 +25764,7 @@
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B397" s="0" t="n">
         <v>2018</v>
@@ -25814,7 +25805,7 @@
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B398" s="0" t="n">
         <v>2018</v>
@@ -25855,7 +25846,7 @@
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B399" s="0" t="n">
         <v>2018</v>
@@ -25896,7 +25887,7 @@
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B400" s="0" t="n">
         <v>2018</v>
@@ -25937,7 +25928,7 @@
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B401" s="0" t="n">
         <v>2018</v>
@@ -25978,7 +25969,7 @@
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B402" s="0" t="n">
         <v>2018</v>
@@ -26019,7 +26010,7 @@
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B403" s="0" t="n">
         <v>2018</v>
@@ -26060,7 +26051,7 @@
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B404" s="0" t="n">
         <v>2018</v>
@@ -26101,7 +26092,7 @@
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B405" s="0" t="n">
         <v>2018</v>
@@ -26142,7 +26133,7 @@
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B406" s="0" t="n">
         <v>2018</v>
@@ -26183,7 +26174,7 @@
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B407" s="0" t="n">
         <v>2018</v>
@@ -26224,7 +26215,7 @@
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B408" s="0" t="n">
         <v>2018</v>
@@ -26265,7 +26256,7 @@
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B409" s="0" t="n">
         <v>2018</v>
@@ -26306,7 +26297,7 @@
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B410" s="0" t="n">
         <v>2018</v>
@@ -26347,7 +26338,7 @@
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B411" s="0" t="n">
         <v>2018</v>
@@ -26388,7 +26379,7 @@
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B412" s="0" t="n">
         <v>2018</v>
@@ -26429,7 +26420,7 @@
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B413" s="0" t="n">
         <v>2018</v>
@@ -26470,7 +26461,7 @@
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B414" s="0" t="n">
         <v>2018</v>
@@ -26511,7 +26502,7 @@
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B415" s="0" t="n">
         <v>2018</v>
@@ -26552,7 +26543,7 @@
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B416" s="0" t="n">
         <v>2018</v>
@@ -26593,7 +26584,7 @@
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B417" s="0" t="n">
         <v>2018</v>
@@ -26634,7 +26625,7 @@
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B418" s="0" t="n">
         <v>2018</v>
@@ -26675,7 +26666,7 @@
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B419" s="0" t="n">
         <v>2018</v>
@@ -26716,7 +26707,7 @@
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B420" s="0" t="n">
         <v>2018</v>
@@ -26757,7 +26748,7 @@
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B421" s="0" t="n">
         <v>2018</v>
@@ -26798,7 +26789,7 @@
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B422" s="0" t="n">
         <v>2018</v>
@@ -26839,7 +26830,7 @@
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B423" s="0" t="n">
         <v>2018</v>
@@ -26880,7 +26871,7 @@
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B424" s="0" t="n">
         <v>2018</v>
@@ -26921,7 +26912,7 @@
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B425" s="0" t="n">
         <v>2018</v>
@@ -26962,7 +26953,7 @@
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B426" s="0" t="n">
         <v>2018</v>
@@ -27003,7 +26994,7 @@
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B427" s="0" t="n">
         <v>2018</v>
@@ -27044,7 +27035,7 @@
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B428" s="0" t="n">
         <v>2018</v>
@@ -27085,7 +27076,7 @@
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B429" s="0" t="n">
         <v>2018</v>
@@ -27126,7 +27117,7 @@
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B430" s="0" t="n">
         <v>2018</v>
@@ -27167,7 +27158,7 @@
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B431" s="0" t="n">
         <v>2018</v>
@@ -27208,7 +27199,7 @@
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B432" s="0" t="n">
         <v>2018</v>
@@ -27249,7 +27240,7 @@
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B433" s="0" t="n">
         <v>2018</v>
@@ -27290,7 +27281,7 @@
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B434" s="0" t="n">
         <v>2018</v>
@@ -27331,7 +27322,7 @@
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B435" s="0" t="n">
         <v>2018</v>
@@ -27372,7 +27363,7 @@
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B436" s="0" t="n">
         <v>2018</v>
@@ -27413,7 +27404,7 @@
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B437" s="0" t="n">
         <v>2018</v>
@@ -27454,7 +27445,7 @@
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B438" s="0" t="n">
         <v>2018</v>
@@ -27495,7 +27486,7 @@
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B439" s="0" t="n">
         <v>2018</v>
@@ -27536,7 +27527,7 @@
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B440" s="0" t="n">
         <v>2018</v>
@@ -27577,7 +27568,7 @@
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B441" s="0" t="n">
         <v>2018</v>
@@ -27618,7 +27609,7 @@
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B442" s="0" t="n">
         <v>2018</v>
@@ -27659,7 +27650,7 @@
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B443" s="0" t="n">
         <v>2018</v>
@@ -27700,7 +27691,7 @@
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B444" s="0" t="n">
         <v>2018</v>
@@ -27741,7 +27732,7 @@
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B445" s="0" t="n">
         <v>2018</v>
@@ -27782,7 +27773,7 @@
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B446" s="0" t="n">
         <v>2018</v>
@@ -27823,7 +27814,7 @@
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B447" s="0" t="n">
         <v>2018</v>
@@ -27864,7 +27855,7 @@
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B448" s="0" t="n">
         <v>2018</v>
@@ -27905,7 +27896,7 @@
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B449" s="0" t="n">
         <v>2018</v>
@@ -27946,7 +27937,7 @@
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B450" s="0" t="n">
         <v>2018</v>
@@ -27987,7 +27978,7 @@
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B451" s="0" t="n">
         <v>2018</v>
@@ -28028,7 +28019,7 @@
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B452" s="0" t="n">
         <v>2018</v>
@@ -28069,7 +28060,7 @@
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B453" s="0" t="n">
         <v>2018</v>
@@ -28110,7 +28101,7 @@
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B454" s="0" t="n">
         <v>2018</v>
@@ -28151,7 +28142,7 @@
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B455" s="0" t="n">
         <v>2018</v>
@@ -28192,7 +28183,7 @@
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B456" s="0" t="n">
         <v>2018</v>
@@ -28233,7 +28224,7 @@
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B457" s="0" t="n">
         <v>2018</v>
@@ -28274,7 +28265,7 @@
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B458" s="0" t="n">
         <v>2018</v>
@@ -28315,7 +28306,7 @@
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B459" s="0" t="n">
         <v>2018</v>
@@ -28356,7 +28347,7 @@
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B460" s="0" t="n">
         <v>2018</v>
@@ -28397,7 +28388,7 @@
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B461" s="0" t="n">
         <v>2018</v>
@@ -28438,7 +28429,7 @@
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B462" s="0" t="n">
         <v>2018</v>
@@ -28479,7 +28470,7 @@
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B463" s="0" t="n">
         <v>2018</v>
@@ -28520,7 +28511,7 @@
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B464" s="0" t="n">
         <v>2018</v>
@@ -28561,7 +28552,7 @@
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B465" s="0" t="n">
         <v>2018</v>
@@ -28602,7 +28593,7 @@
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B466" s="0" t="n">
         <v>2018</v>
@@ -28643,7 +28634,7 @@
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B467" s="0" t="n">
         <v>2018</v>
@@ -28684,7 +28675,7 @@
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B468" s="0" t="n">
         <v>2018</v>
@@ -28725,7 +28716,7 @@
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B469" s="0" t="n">
         <v>2018</v>
@@ -28766,7 +28757,7 @@
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B470" s="0" t="n">
         <v>2018</v>
@@ -28807,7 +28798,7 @@
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B471" s="0" t="n">
         <v>2018</v>
@@ -28848,7 +28839,7 @@
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B472" s="0" t="n">
         <v>2018</v>
@@ -28889,7 +28880,7 @@
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B473" s="0" t="n">
         <v>2018</v>
@@ -28930,7 +28921,7 @@
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B474" s="0" t="n">
         <v>2018</v>
@@ -28971,7 +28962,7 @@
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B475" s="0" t="n">
         <v>2018</v>
@@ -29012,7 +29003,7 @@
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B476" s="0" t="n">
         <v>2018</v>
@@ -29053,7 +29044,7 @@
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B477" s="0" t="n">
         <v>2018</v>
@@ -29094,7 +29085,7 @@
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B478" s="0" t="n">
         <v>2018</v>
@@ -29135,7 +29126,7 @@
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B479" s="0" t="n">
         <v>2018</v>
@@ -29176,7 +29167,7 @@
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B480" s="0" t="n">
         <v>2018</v>
@@ -29217,7 +29208,7 @@
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B481" s="0" t="n">
         <v>2018</v>
@@ -29258,7 +29249,7 @@
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B482" s="0" t="n">
         <v>2018</v>
@@ -29299,7 +29290,7 @@
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B483" s="0" t="n">
         <v>2018</v>
@@ -29340,7 +29331,7 @@
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B484" s="0" t="n">
         <v>2018</v>
@@ -29381,7 +29372,7 @@
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B485" s="0" t="n">
         <v>2018</v>
@@ -29422,7 +29413,7 @@
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B486" s="0" t="n">
         <v>2018</v>
@@ -29463,7 +29454,7 @@
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B487" s="0" t="n">
         <v>2018</v>
@@ -29504,7 +29495,7 @@
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B488" s="0" t="n">
         <v>2018</v>
@@ -29545,7 +29536,7 @@
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B489" s="0" t="n">
         <v>2018</v>
@@ -29586,7 +29577,7 @@
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B490" s="0" t="n">
         <v>2018</v>
@@ -29627,7 +29618,7 @@
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B491" s="0" t="n">
         <v>2018</v>
@@ -29668,7 +29659,7 @@
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B492" s="0" t="n">
         <v>2018</v>
@@ -29709,7 +29700,7 @@
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B493" s="0" t="n">
         <v>2018</v>
@@ -29750,7 +29741,7 @@
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B494" s="0" t="n">
         <v>2018</v>
@@ -29791,7 +29782,7 @@
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B495" s="0" t="n">
         <v>2018</v>
@@ -29832,7 +29823,7 @@
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B496" s="0" t="n">
         <v>2018</v>
@@ -29873,7 +29864,7 @@
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B497" s="0" t="n">
         <v>2018</v>
@@ -29914,7 +29905,7 @@
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B498" s="0" t="n">
         <v>2018</v>
@@ -29955,7 +29946,7 @@
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B499" s="0" t="n">
         <v>2018</v>
@@ -29996,7 +29987,7 @@
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B500" s="0" t="n">
         <v>2018</v>
@@ -30037,7 +30028,7 @@
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B501" s="0" t="n">
         <v>2018</v>
@@ -30078,7 +30069,7 @@
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B502" s="0" t="n">
         <v>2018</v>
@@ -30119,7 +30110,7 @@
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B503" s="0" t="n">
         <v>2018</v>
@@ -30160,7 +30151,7 @@
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B504" s="0" t="n">
         <v>2018</v>
@@ -30201,7 +30192,7 @@
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B505" s="0" t="n">
         <v>2018</v>
@@ -30242,7 +30233,7 @@
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B506" s="0" t="n">
         <v>2018</v>
@@ -30283,7 +30274,7 @@
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B507" s="0" t="n">
         <v>2018</v>
@@ -30324,7 +30315,7 @@
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B508" s="0" t="n">
         <v>2018</v>
@@ -30365,7 +30356,7 @@
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B509" s="0" t="n">
         <v>2018</v>
@@ -30406,7 +30397,7 @@
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B510" s="0" t="n">
         <v>2018</v>
@@ -30447,7 +30438,7 @@
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B511" s="0" t="n">
         <v>2018</v>
@@ -30488,7 +30479,7 @@
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B512" s="0" t="n">
         <v>2018</v>
@@ -30529,7 +30520,7 @@
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B513" s="0" t="n">
         <v>2018</v>
@@ -30570,7 +30561,7 @@
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B514" s="0" t="n">
         <v>2018</v>
@@ -30611,7 +30602,7 @@
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B515" s="0" t="n">
         <v>2018</v>
@@ -30652,7 +30643,7 @@
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B516" s="0" t="n">
         <v>2018</v>
@@ -30693,7 +30684,7 @@
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B517" s="0" t="n">
         <v>2018</v>
@@ -30734,7 +30725,7 @@
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B518" s="0" t="n">
         <v>2018</v>
@@ -30775,7 +30766,7 @@
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B519" s="0" t="n">
         <v>2018</v>
@@ -30816,7 +30807,7 @@
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B520" s="0" t="n">
         <v>2018</v>
@@ -30857,7 +30848,7 @@
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B521" s="0" t="n">
         <v>2018</v>
@@ -30898,7 +30889,7 @@
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B522" s="0" t="n">
         <v>2018</v>
@@ -30939,7 +30930,7 @@
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B523" s="0" t="n">
         <v>2018</v>
@@ -30980,7 +30971,7 @@
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B524" s="0" t="n">
         <v>2018</v>
@@ -31021,7 +31012,7 @@
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B525" s="0" t="n">
         <v>2018</v>
@@ -31062,7 +31053,7 @@
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B526" s="0" t="n">
         <v>2018</v>
@@ -31103,7 +31094,7 @@
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B527" s="0" t="n">
         <v>2018</v>
@@ -31144,7 +31135,7 @@
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B528" s="0" t="n">
         <v>2018</v>
@@ -31185,7 +31176,7 @@
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B529" s="0" t="n">
         <v>2018</v>
@@ -31226,7 +31217,7 @@
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B530" s="0" t="n">
         <v>2018</v>
@@ -31267,7 +31258,7 @@
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B531" s="0" t="n">
         <v>2018</v>
@@ -31308,7 +31299,7 @@
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B532" s="0" t="n">
         <v>2018</v>
@@ -31349,7 +31340,7 @@
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B533" s="0" t="n">
         <v>2018</v>
@@ -31390,7 +31381,7 @@
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B534" s="0" t="n">
         <v>2018</v>
@@ -31431,7 +31422,7 @@
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B535" s="0" t="n">
         <v>2018</v>
@@ -31472,7 +31463,7 @@
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B536" s="0" t="n">
         <v>2018</v>
@@ -31513,7 +31504,7 @@
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B537" s="0" t="n">
         <v>2018</v>
@@ -31554,7 +31545,7 @@
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B538" s="0" t="n">
         <v>2018</v>
@@ -31595,7 +31586,7 @@
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B539" s="0" t="n">
         <v>2018</v>
@@ -31636,7 +31627,7 @@
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B540" s="0" t="n">
         <v>2018</v>
@@ -31677,7 +31668,7 @@
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B541" s="0" t="n">
         <v>2018</v>
@@ -31718,7 +31709,7 @@
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B542" s="0" t="n">
         <v>2018</v>
@@ -31759,7 +31750,7 @@
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B543" s="0" t="n">
         <v>2018</v>
@@ -31800,7 +31791,7 @@
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B544" s="0" t="n">
         <v>2018</v>
@@ -31841,7 +31832,7 @@
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B545" s="0" t="n">
         <v>2018</v>
@@ -31882,7 +31873,7 @@
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B546" s="0" t="n">
         <v>2018</v>
@@ -31923,7 +31914,7 @@
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B547" s="0" t="n">
         <v>2018</v>
@@ -31964,7 +31955,7 @@
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B548" s="0" t="n">
         <v>2018</v>
@@ -32005,7 +31996,7 @@
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B549" s="0" t="n">
         <v>2018</v>
@@ -32046,7 +32037,7 @@
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B550" s="0" t="n">
         <v>2018</v>
@@ -32087,7 +32078,7 @@
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B551" s="0" t="n">
         <v>2018</v>
@@ -32128,7 +32119,7 @@
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B552" s="0" t="n">
         <v>2018</v>
@@ -32169,7 +32160,7 @@
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B553" s="0" t="n">
         <v>2018</v>
@@ -32210,7 +32201,7 @@
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B554" s="0" t="n">
         <v>2018</v>
@@ -32251,7 +32242,7 @@
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B555" s="0" t="n">
         <v>2018</v>
@@ -32292,7 +32283,7 @@
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B556" s="0" t="n">
         <v>2018</v>
@@ -32333,7 +32324,7 @@
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B557" s="0" t="n">
         <v>2018</v>
@@ -32374,7 +32365,7 @@
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B558" s="0" t="n">
         <v>2018</v>
@@ -32415,7 +32406,7 @@
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B559" s="0" t="n">
         <v>2018</v>
@@ -32456,7 +32447,7 @@
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B560" s="0" t="n">
         <v>2018</v>
@@ -32497,7 +32488,7 @@
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B561" s="0" t="n">
         <v>2018</v>
@@ -32538,7 +32529,7 @@
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B562" s="0" t="n">
         <v>2018</v>
@@ -32579,7 +32570,7 @@
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B563" s="0" t="n">
         <v>2018</v>
@@ -32620,7 +32611,7 @@
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B564" s="0" t="n">
         <v>2018</v>
@@ -32661,7 +32652,7 @@
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B565" s="0" t="n">
         <v>2018</v>
@@ -32702,7 +32693,7 @@
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B566" s="0" t="n">
         <v>2018</v>
@@ -32743,7 +32734,7 @@
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B567" s="0" t="n">
         <v>2018</v>
@@ -32784,7 +32775,7 @@
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B568" s="0" t="n">
         <v>2018</v>
@@ -32825,7 +32816,7 @@
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B569" s="0" t="n">
         <v>2018</v>
@@ -32866,7 +32857,7 @@
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B570" s="0" t="n">
         <v>2018</v>
@@ -32907,7 +32898,7 @@
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B571" s="0" t="n">
         <v>2018</v>
@@ -32948,7 +32939,7 @@
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B572" s="0" t="n">
         <v>2018</v>
@@ -32989,7 +32980,7 @@
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B573" s="0" t="n">
         <v>2018</v>
@@ -33030,7 +33021,7 @@
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B574" s="0" t="n">
         <v>2018</v>
@@ -33071,7 +33062,7 @@
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B575" s="0" t="n">
         <v>2018</v>
@@ -33112,7 +33103,7 @@
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B576" s="0" t="n">
         <v>2018</v>
@@ -33153,7 +33144,7 @@
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B577" s="0" t="n">
         <v>2018</v>
@@ -33194,7 +33185,7 @@
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B578" s="0" t="n">
         <v>2018</v>
@@ -33235,7 +33226,7 @@
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B579" s="0" t="n">
         <v>2018</v>
@@ -33276,7 +33267,7 @@
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B580" s="0" t="n">
         <v>2018</v>
@@ -33317,7 +33308,7 @@
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B581" s="0" t="n">
         <v>2018</v>
@@ -33358,7 +33349,7 @@
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B582" s="0" t="n">
         <v>2018</v>
@@ -33399,7 +33390,7 @@
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B583" s="0" t="n">
         <v>2018</v>
@@ -33440,7 +33431,7 @@
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B584" s="0" t="n">
         <v>2018</v>
@@ -33481,7 +33472,7 @@
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B585" s="0" t="n">
         <v>2018</v>
@@ -33522,7 +33513,7 @@
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B586" s="0" t="n">
         <v>2018</v>
@@ -33563,7 +33554,7 @@
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B587" s="0" t="n">
         <v>2018</v>
@@ -33604,7 +33595,7 @@
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B588" s="0" t="n">
         <v>2018</v>
@@ -33645,7 +33636,7 @@
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B589" s="0" t="n">
         <v>2018</v>
@@ -33686,7 +33677,7 @@
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B590" s="0" t="n">
         <v>2018</v>
@@ -33727,7 +33718,7 @@
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B591" s="0" t="n">
         <v>2018</v>
@@ -33768,7 +33759,7 @@
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B592" s="0" t="n">
         <v>2018</v>
@@ -33809,7 +33800,7 @@
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B593" s="0" t="n">
         <v>2018</v>
@@ -33850,7 +33841,7 @@
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B594" s="0" t="n">
         <v>2018</v>
@@ -33891,7 +33882,7 @@
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B595" s="0" t="n">
         <v>2018</v>
@@ -33932,7 +33923,7 @@
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B596" s="0" t="n">
         <v>2018</v>
@@ -33973,7 +33964,7 @@
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B597" s="0" t="n">
         <v>2018</v>
@@ -34014,7 +34005,7 @@
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B598" s="0" t="n">
         <v>2018</v>
@@ -34055,7 +34046,7 @@
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B599" s="0" t="n">
         <v>2018</v>
@@ -34096,7 +34087,7 @@
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B600" s="0" t="n">
         <v>2018</v>
@@ -34137,7 +34128,7 @@
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B601" s="0" t="n">
         <v>2018</v>
@@ -34178,7 +34169,7 @@
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B602" s="0" t="n">
         <v>2018</v>
@@ -34219,7 +34210,7 @@
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B603" s="0" t="n">
         <v>2018</v>
@@ -34260,7 +34251,7 @@
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B604" s="0" t="n">
         <v>2018</v>
@@ -34301,7 +34292,7 @@
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B605" s="0" t="n">
         <v>2018</v>
@@ -34342,7 +34333,7 @@
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B606" s="0" t="n">
         <v>2018</v>
@@ -34383,7 +34374,7 @@
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B607" s="0" t="n">
         <v>2018</v>
@@ -34424,7 +34415,7 @@
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B608" s="0" t="n">
         <v>2018</v>
@@ -34465,7 +34456,7 @@
     </row>
     <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B609" s="0" t="n">
         <v>2018</v>
@@ -34506,7 +34497,7 @@
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B610" s="0" t="n">
         <v>2018</v>
@@ -34547,7 +34538,7 @@
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B611" s="0" t="n">
         <v>2018</v>
@@ -34588,7 +34579,7 @@
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B612" s="0" t="n">
         <v>2018</v>
@@ -34629,7 +34620,7 @@
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B613" s="0" t="n">
         <v>2018</v>
@@ -34670,7 +34661,7 @@
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B614" s="0" t="n">
         <v>2018</v>
@@ -34711,7 +34702,7 @@
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B615" s="0" t="n">
         <v>2018</v>
@@ -34752,7 +34743,7 @@
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B616" s="0" t="n">
         <v>2018</v>
@@ -34793,7 +34784,7 @@
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B617" s="0" t="n">
         <v>2018</v>
@@ -34834,7 +34825,7 @@
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B618" s="0" t="n">
         <v>2018</v>
@@ -34875,7 +34866,7 @@
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B619" s="0" t="n">
         <v>2018</v>
@@ -34916,7 +34907,7 @@
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B620" s="0" t="n">
         <v>2018</v>
@@ -34957,7 +34948,7 @@
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B621" s="0" t="n">
         <v>2018</v>
@@ -34998,7 +34989,7 @@
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B622" s="0" t="n">
         <v>2018</v>
@@ -35039,7 +35030,7 @@
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B623" s="0" t="n">
         <v>2018</v>
@@ -35080,7 +35071,7 @@
     </row>
     <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B624" s="0" t="n">
         <v>2018</v>
@@ -35121,7 +35112,7 @@
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B625" s="0" t="n">
         <v>2018</v>
@@ -35162,7 +35153,7 @@
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B626" s="0" t="n">
         <v>2018</v>
@@ -35203,7 +35194,7 @@
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B627" s="0" t="n">
         <v>2018</v>
@@ -35244,7 +35235,7 @@
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B628" s="0" t="n">
         <v>2018</v>
@@ -35285,7 +35276,7 @@
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B629" s="0" t="n">
         <v>2018</v>
@@ -35326,7 +35317,7 @@
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B630" s="0" t="n">
         <v>2018</v>
@@ -35367,7 +35358,7 @@
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B631" s="0" t="n">
         <v>2018</v>
@@ -35408,7 +35399,7 @@
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B632" s="0" t="n">
         <v>2018</v>
@@ -35449,7 +35440,7 @@
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B633" s="0" t="n">
         <v>2018</v>
@@ -35490,7 +35481,7 @@
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B634" s="0" t="n">
         <v>2018</v>
@@ -35531,7 +35522,7 @@
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B635" s="0" t="n">
         <v>2018</v>
@@ -35572,7 +35563,7 @@
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B636" s="0" t="n">
         <v>2018</v>
@@ -35613,7 +35604,7 @@
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B637" s="0" t="n">
         <v>2018</v>
@@ -35654,7 +35645,7 @@
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B638" s="0" t="n">
         <v>2018</v>
@@ -35695,7 +35686,7 @@
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B639" s="0" t="n">
         <v>2018</v>
@@ -35736,7 +35727,7 @@
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B640" s="0" t="n">
         <v>2018</v>
@@ -35777,7 +35768,7 @@
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B641" s="0" t="n">
         <v>2018</v>
@@ -35818,7 +35809,7 @@
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B642" s="0" t="n">
         <v>2018</v>
@@ -35859,7 +35850,7 @@
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B643" s="0" t="n">
         <v>2018</v>
@@ -35900,7 +35891,7 @@
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B644" s="0" t="n">
         <v>2018</v>
@@ -35941,7 +35932,7 @@
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B645" s="0" t="n">
         <v>2018</v>
@@ -35982,7 +35973,7 @@
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B646" s="0" t="n">
         <v>2018</v>
@@ -36023,7 +36014,7 @@
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B647" s="0" t="n">
         <v>2018</v>
@@ -36064,7 +36055,7 @@
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B648" s="0" t="n">
         <v>2018</v>
@@ -36105,7 +36096,7 @@
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B649" s="0" t="n">
         <v>2018</v>
@@ -36146,7 +36137,7 @@
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B650" s="0" t="n">
         <v>2018</v>
@@ -36187,7 +36178,7 @@
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B651" s="0" t="n">
         <v>2018</v>
@@ -36228,7 +36219,7 @@
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B652" s="0" t="n">
         <v>2018</v>
@@ -36269,7 +36260,7 @@
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B653" s="0" t="n">
         <v>2018</v>
@@ -36310,7 +36301,7 @@
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B654" s="0" t="n">
         <v>2018</v>
@@ -36351,7 +36342,7 @@
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B655" s="0" t="n">
         <v>2018</v>
@@ -36392,7 +36383,7 @@
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B656" s="0" t="n">
         <v>2018</v>
@@ -36433,7 +36424,7 @@
     </row>
     <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B657" s="0" t="n">
         <v>2018</v>
@@ -36474,7 +36465,7 @@
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B658" s="0" t="n">
         <v>2018</v>
@@ -36515,7 +36506,7 @@
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B659" s="0" t="n">
         <v>2018</v>
@@ -36556,7 +36547,7 @@
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B660" s="0" t="n">
         <v>2018</v>
@@ -36597,7 +36588,7 @@
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B661" s="0" t="n">
         <v>2018</v>
@@ -36638,7 +36629,7 @@
     </row>
     <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B662" s="0" t="n">
         <v>2018</v>
@@ -36679,7 +36670,7 @@
     </row>
     <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B663" s="0" t="n">
         <v>2018</v>
@@ -36720,7 +36711,7 @@
     </row>
     <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B664" s="0" t="n">
         <v>2018</v>
@@ -36761,7 +36752,7 @@
     </row>
     <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B665" s="0" t="n">
         <v>2018</v>
@@ -36802,7 +36793,7 @@
     </row>
     <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B666" s="0" t="n">
         <v>2018</v>
@@ -36843,7 +36834,7 @@
     </row>
     <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B667" s="0" t="n">
         <v>2018</v>
@@ -36884,7 +36875,7 @@
     </row>
     <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B668" s="0" t="n">
         <v>2018</v>
@@ -36925,7 +36916,7 @@
     </row>
     <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B669" s="0" t="n">
         <v>2018</v>
@@ -36966,7 +36957,7 @@
     </row>
     <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B670" s="0" t="n">
         <v>2018</v>
@@ -37007,7 +36998,7 @@
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B671" s="0" t="n">
         <v>2018</v>
@@ -37048,7 +37039,7 @@
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B672" s="0" t="n">
         <v>2018</v>
@@ -37089,7 +37080,7 @@
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B673" s="0" t="n">
         <v>2018</v>
@@ -37130,7 +37121,7 @@
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B674" s="0" t="n">
         <v>2018</v>
@@ -37171,7 +37162,7 @@
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B675" s="0" t="n">
         <v>2018</v>
@@ -37212,7 +37203,7 @@
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B676" s="0" t="n">
         <v>2018</v>
@@ -37253,7 +37244,7 @@
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B677" s="0" t="n">
         <v>2018</v>
@@ -37294,7 +37285,7 @@
     </row>
     <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B678" s="0" t="n">
         <v>2018</v>
@@ -37335,7 +37326,7 @@
     </row>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B679" s="0" t="n">
         <v>2018</v>
@@ -37376,7 +37367,7 @@
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B680" s="0" t="n">
         <v>2018</v>
@@ -37417,7 +37408,7 @@
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B681" s="0" t="n">
         <v>2018</v>
@@ -37458,7 +37449,7 @@
     </row>
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B682" s="0" t="n">
         <v>2018</v>
@@ -37499,7 +37490,7 @@
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B683" s="0" t="n">
         <v>2018</v>
@@ -37540,7 +37531,7 @@
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B684" s="0" t="n">
         <v>2018</v>
@@ -37581,7 +37572,7 @@
     </row>
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B685" s="0" t="n">
         <v>2018</v>
@@ -37622,7 +37613,7 @@
     </row>
     <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B686" s="0" t="n">
         <v>2018</v>
@@ -37663,7 +37654,7 @@
     </row>
     <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B687" s="0" t="n">
         <v>2018</v>
@@ -37704,7 +37695,7 @@
     </row>
     <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B688" s="0" t="n">
         <v>2018</v>
@@ -37745,7 +37736,7 @@
     </row>
     <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B689" s="0" t="n">
         <v>2018</v>
@@ -37786,7 +37777,7 @@
     </row>
     <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B690" s="0" t="n">
         <v>2018</v>
@@ -37827,7 +37818,7 @@
     </row>
     <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B691" s="0" t="n">
         <v>2018</v>
@@ -37868,7 +37859,7 @@
     </row>
     <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B692" s="0" t="n">
         <v>2018</v>
@@ -37909,7 +37900,7 @@
     </row>
     <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B693" s="0" t="n">
         <v>2018</v>
@@ -37950,7 +37941,7 @@
     </row>
     <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B694" s="0" t="n">
         <v>2018</v>
@@ -37991,7 +37982,7 @@
     </row>
     <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B695" s="0" t="n">
         <v>2018</v>
@@ -38032,7 +38023,7 @@
     </row>
     <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B696" s="0" t="n">
         <v>2018</v>
@@ -38073,7 +38064,7 @@
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B697" s="0" t="n">
         <v>2018</v>
@@ -38114,7 +38105,7 @@
     </row>
     <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B698" s="0" t="n">
         <v>2018</v>
@@ -38155,7 +38146,7 @@
     </row>
     <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B699" s="0" t="n">
         <v>2018</v>
@@ -38196,7 +38187,7 @@
     </row>
     <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B700" s="0" t="n">
         <v>2018</v>
@@ -38237,7 +38228,7 @@
     </row>
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B701" s="0" t="n">
         <v>2018</v>
@@ -38278,7 +38269,7 @@
     </row>
     <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B702" s="0" t="n">
         <v>2018</v>
@@ -38319,7 +38310,7 @@
     </row>
     <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B703" s="0" t="n">
         <v>2018</v>
@@ -38360,7 +38351,7 @@
     </row>
     <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B704" s="0" t="n">
         <v>2018</v>
@@ -38401,7 +38392,7 @@
     </row>
     <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B705" s="0" t="n">
         <v>2018</v>
@@ -38442,7 +38433,7 @@
     </row>
     <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B706" s="0" t="n">
         <v>2018</v>
@@ -38483,7 +38474,7 @@
     </row>
     <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B707" s="0" t="n">
         <v>2018</v>
@@ -38524,7 +38515,7 @@
     </row>
     <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B708" s="0" t="n">
         <v>2018</v>
@@ -38565,7 +38556,7 @@
     </row>
     <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B709" s="0" t="n">
         <v>2018</v>
@@ -38606,7 +38597,7 @@
     </row>
     <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B710" s="0" t="n">
         <v>2018</v>
@@ -38647,7 +38638,7 @@
     </row>
     <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B711" s="0" t="n">
         <v>2018</v>
@@ -38688,7 +38679,7 @@
     </row>
     <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B712" s="0" t="n">
         <v>2018</v>
@@ -38729,7 +38720,7 @@
     </row>
     <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B713" s="0" t="n">
         <v>2018</v>
@@ -38770,7 +38761,7 @@
     </row>
     <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B714" s="0" t="n">
         <v>2018</v>
@@ -38811,7 +38802,7 @@
     </row>
     <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B715" s="0" t="n">
         <v>2018</v>
@@ -38852,7 +38843,7 @@
     </row>
     <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B716" s="0" t="n">
         <v>2018</v>
@@ -38893,7 +38884,7 @@
     </row>
     <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B717" s="0" t="n">
         <v>2018</v>
@@ -38934,7 +38925,7 @@
     </row>
     <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B718" s="0" t="n">
         <v>2018</v>
@@ -38975,7 +38966,7 @@
     </row>
     <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B719" s="0" t="n">
         <v>2018</v>
@@ -39016,7 +39007,7 @@
     </row>
     <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B720" s="0" t="n">
         <v>2018</v>
@@ -39057,7 +39048,7 @@
     </row>
     <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B721" s="0" t="n">
         <v>2018</v>
@@ -39098,7 +39089,7 @@
     </row>
     <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B722" s="0" t="n">
         <v>2018</v>
@@ -39139,7 +39130,7 @@
     </row>
     <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B723" s="0" t="n">
         <v>2018</v>
@@ -39180,7 +39171,7 @@
     </row>
     <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B724" s="0" t="n">
         <v>2018</v>
@@ -39221,7 +39212,7 @@
     </row>
     <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B725" s="0" t="n">
         <v>2018</v>
@@ -39262,7 +39253,7 @@
     </row>
     <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B726" s="0" t="n">
         <v>2018</v>
@@ -39303,7 +39294,7 @@
     </row>
     <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B727" s="0" t="n">
         <v>2018</v>
@@ -39344,7 +39335,7 @@
     </row>
     <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B728" s="0" t="n">
         <v>2018</v>
@@ -39385,7 +39376,7 @@
     </row>
     <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B729" s="0" t="n">
         <v>2018</v>
@@ -39426,7 +39417,7 @@
     </row>
     <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B730" s="0" t="n">
         <v>2018</v>
@@ -39467,7 +39458,7 @@
     </row>
     <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B731" s="0" t="n">
         <v>2018</v>
@@ -39508,8 +39499,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
